--- a/Data/StrKo.xlsx
+++ b/Data/StrKo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gb\sushi-desktop\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gb/black-android/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DBAC4F-7CB3-458A-9176-39B5D19B3F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7629FF3-D3DE-564D-B5E4-BDC135F83419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6382" yWindow="2048" windowWidth="29573" windowHeight="19102" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14840" yWindow="8440" windowWidth="29580" windowHeight="19100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StrKo" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>[StrKoData]</t>
   </si>
@@ -66,6 +66,27 @@
   </si>
   <si>
     <t>str #8</t>
+  </si>
+  <si>
+    <t>확인</t>
+  </si>
+  <si>
+    <t>예</t>
+  </si>
+  <si>
+    <t>아니요</t>
+  </si>
+  <si>
+    <t>잔해를 치울까요? {0}골드가 필요합니다.</t>
+  </si>
+  <si>
+    <t>설정</t>
+  </si>
+  <si>
+    <t>배경음악</t>
+  </si>
+  <si>
+    <t>효과음</t>
   </si>
 </sst>
 </file>
@@ -512,24 +533,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="77.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="140.1328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.1328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43.1328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="77.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="140.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="42" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.1328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="40.1328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
@@ -567,6 +588,69 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f>A3</f>
+        <v>확인</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f t="shared" ref="B4:B9" si="0">A4</f>
+        <v>예</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>아니요</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>잔해를 치울까요? {0}골드가 필요합니다.</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>설정</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>배경음악</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>효과음</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Data/StrKo.xlsx
+++ b/Data/StrKo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gb/black-android/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7629FF3-D3DE-564D-B5E4-BDC135F83419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8DD36C-BE5A-C749-B9E2-C284E60E2A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14840" yWindow="8440" windowWidth="29580" windowHeight="19100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>[StrKoData]</t>
   </si>
@@ -87,6 +87,21 @@
   </si>
   <si>
     <t>효과음</t>
+  </si>
+  <si>
+    <t>클리어를 축하합니다. {0}골드를 받았습니다.</t>
+  </si>
+  <si>
+    <t>남은 시간</t>
+  </si>
+  <si>
+    <t>모든 스테이지를 깼습니다!</t>
+  </si>
+  <si>
+    <t>광고 시청 보상으로 {0}골드를 받았습니다.</t>
+  </si>
+  <si>
+    <t>골드가 부족합니다.</t>
   </si>
 </sst>
 </file>
@@ -533,11 +548,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
@@ -602,7 +617,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f t="shared" ref="B4:B9" si="0">A4</f>
+        <f t="shared" ref="B4:B14" si="0">A4</f>
         <v>예</v>
       </c>
     </row>
@@ -649,6 +664,51 @@
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>효과음</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>클리어를 축하합니다. {0}골드를 받았습니다.</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>남은 시간</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>모든 스테이지를 깼습니다!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>광고 시청 보상으로 {0}골드를 받았습니다.</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>골드가 부족합니다.</v>
       </c>
     </row>
   </sheetData>

--- a/Data/StrKo.xlsx
+++ b/Data/StrKo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gb/black-android/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8DD36C-BE5A-C749-B9E2-C284E60E2A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7AF240-B60D-4C4B-9A4C-B49562B44565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14840" yWindow="8440" windowWidth="29580" windowHeight="19100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>[StrKoData]</t>
   </si>
@@ -102,6 +102,13 @@
   </si>
   <si>
     <t>골드가 부족합니다.</t>
+  </si>
+  <si>
+    <t>다음 스테이지 준비중\n{0:F1}초</t>
+  </si>
+  <si>
+    <t>다음 스테이지 준비중
+{0:F1}초</t>
   </si>
 </sst>
 </file>
@@ -160,10 +167,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -548,7 +558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -617,7 +627,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f t="shared" ref="B4:B14" si="0">A4</f>
+        <f t="shared" ref="B4:B15" si="0">A4</f>
         <v>예</v>
       </c>
     </row>
@@ -709,6 +719,14 @@
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>골드가 부족합니다.</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Data/StrKo.xlsx
+++ b/Data/StrKo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gb/black-android/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7AF240-B60D-4C4B-9A4C-B49562B44565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD426D9-CB87-0342-9DB0-0F981A9E4DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14840" yWindow="8440" windowWidth="29580" windowHeight="19100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>[StrKoData]</t>
   </si>
@@ -109,6 +109,15 @@
   <si>
     <t>다음 스테이지 준비중
 {0:F1}초</t>
+  </si>
+  <si>
+    <t>바로 시작</t>
+  </si>
+  <si>
+    <t>광고 시청 후 바로 시작</t>
+  </si>
+  <si>
+    <t>▶ 광고 시청 후 바로 시작</t>
   </si>
 </sst>
 </file>
@@ -558,11 +567,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
@@ -729,6 +738,23 @@
         <v>23</v>
       </c>
     </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f>A16</f>
+        <v>바로 시작</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Data/StrKo.xlsx
+++ b/Data/StrKo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gb/black-android/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD426D9-CB87-0342-9DB0-0F981A9E4DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE007063-E359-8A42-9951-880BA6716C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14840" yWindow="8440" windowWidth="29580" windowHeight="19100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>[StrKoData]</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>▶ 광고 시청 후 바로 시작</t>
+  </si>
+  <si>
+    <t>이 스테이지를 처음부터 새로 시작하겠습니까?</t>
   </si>
 </sst>
 </file>
@@ -567,11 +570,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
@@ -755,6 +758,14 @@
         <v>26</v>
       </c>
     </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Data/StrKo.xlsx
+++ b/Data/StrKo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gb/black-android/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE007063-E359-8A42-9951-880BA6716C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83743B5-92AE-D047-9BFC-A3C4756C94F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14840" yWindow="8440" windowWidth="29580" windowHeight="19100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>[StrKoData]</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>남은 시간</t>
-  </si>
-  <si>
-    <t>모든 스테이지를 깼습니다!</t>
   </si>
   <si>
     <t>광고 시청 보상으로 {0}골드를 받았습니다.</t>
@@ -121,6 +118,13 @@
   </si>
   <si>
     <t>이 스테이지를 처음부터 새로 시작하겠습니까?</t>
+  </si>
+  <si>
+    <t>모든 스테이지를 깼습니다!\n진정한 미술관 재건이 시작되는 다음 업데이트를 기대 해 주세요!</t>
+  </si>
+  <si>
+    <t>모든 스테이지를 깼습니다!
+진정한 미술관 재건이 시작되는 다음 업데이트를 기대 해 주세요!</t>
   </si>
 </sst>
 </file>
@@ -574,7 +578,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
@@ -639,7 +643,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f t="shared" ref="B4:B15" si="0">A4</f>
+        <f t="shared" ref="B4:B13" si="0">A4</f>
         <v>예</v>
       </c>
     </row>
@@ -712,7 +716,7 @@
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>모든 스테이지를 깼습니다!</v>
+        <v>광고 시청 보상으로 {0}골드를 받았습니다.</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -721,49 +725,48 @@
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>광고 시청 보상으로 {0}골드를 받았습니다.</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>골드가 부족합니다.</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>골드가 부족합니다.</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="30">
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="3" t="s">
         <v>23</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f>A15</f>
+        <v>바로 시작</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="1" t="str">
-        <f>A16</f>
-        <v>바로 시작</v>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" ht="45">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>27</v>
+      <c r="B18" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Data/StrKo.xlsx
+++ b/Data/StrKo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gb/black-android/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\black-android\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83743B5-92AE-D047-9BFC-A3C4756C94F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C2CF11-D17A-41DF-BC7A-69C40488A5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14840" yWindow="8440" windowWidth="29580" windowHeight="19100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9127" yWindow="4687" windowWidth="28103" windowHeight="15923" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StrKo" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>[StrKoData]</t>
   </si>
@@ -125,6 +125,88 @@
   <si>
     <t>모든 스테이지를 깼습니다!
 진정한 미술관 재건이 시작되는 다음 업데이트를 기대 해 주세요!</t>
+  </si>
+  <si>
+    <t>업로드가 성공적으로 완료됐습니다.
+업로드 코드: {0}
+용량: {1:n0}바이트
+TS: {2}
+&lt;color=brown&gt;본 화면의 스크린샷을 찍어 공식 카페에 버그 신고를 부탁 드립니다.&lt;/color&gt;
+업로드된 데이터를 분석 후, 카페를 통해 이후 진행을 안내드리겠습니다.
+공식 카페로 이동하거나, 안내 받은 복구 코드를 입력하세요.</t>
+  </si>
+  <si>
+    <t>$저장 데이터 개발팀으로 제출 결과$</t>
+  </si>
+  <si>
+    <t>닫기</t>
+  </si>
+  <si>
+    <t>복구 코드</t>
+  </si>
+  <si>
+    <t>업로드 완료</t>
+  </si>
+  <si>
+    <t>복구 코드 입력</t>
+  </si>
+  <si>
+    <t>저장 파일 문제 업로드 중…</t>
+  </si>
+  <si>
+    <t>저장 파일 문제 업로드 중...</t>
+  </si>
+  <si>
+    <t>안내 받은 복구 코드를 입력해 주십시오.</t>
+  </si>
+  <si>
+    <t>취소</t>
+  </si>
+  <si>
+    <t>복구 코드 확인중…</t>
+  </si>
+  <si>
+    <t>복구 코드 확인중...</t>
+  </si>
+  <si>
+    <t>복구 코드가 잘못됐거나, 복구 데이터가 존재하지 않습니다.
+확인을 눌러 처음 화면으로 돌아갑니다.</t>
+  </si>
+  <si>
+    <t>$복구 코드 오류$</t>
+  </si>
+  <si>
+    <t>컬러뮤지엄 저장 파일을 불러오는 중 오류가 발생했습니다.
+더 심각한 데이터 유실을 막기 위해 게임 플레이는 중단됐습니다.
+문제 해결을 위해서는 게임 진행 상황이 모두 담긴 파일을 업로드해야 합니다.
+문제 분석 및 수정이 되면 게임을 재개할 수 있습니다.
+업로드를 진행하시겠습니까?
+(인터넷 연결이 필요합니다.)</t>
+  </si>
+  <si>
+    <t>$중대한 오류 안내$</t>
+  </si>
+  <si>
+    <t>중대한 오류 발생</t>
+  </si>
+  <si>
+    <t>컬러뮤지엄 업데이트가 필요합니다.
+확인을 눌러 업데이트하세요!
+저장 파일 버전: {0}
+클라이언트 지원 버전: {1}</t>
+  </si>
+  <si>
+    <t>$강제 업데이트 안내$</t>
+  </si>
+  <si>
+    <t>진행 상황을 업로드하지 않으면 더이상 게임을 진행할 수 없습니다.
+업로드가 불가한 증상의 경우 네이버 공식 카페로 이동하여 해결 방법에 대해 문의해 주시기 바랍니다.</t>
+  </si>
+  <si>
+    <t>$업로드 불가 시 게임 진행 불가 안내$</t>
+  </si>
+  <si>
+    <t>공식 카페 이동</t>
   </si>
 </sst>
 </file>
@@ -574,24 +656,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="77.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="140.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="77.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="140.1328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.1328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.1328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="42" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="40.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.1328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40.1328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.1328125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
@@ -728,7 +810,7 @@
         <v>골드가 부족합니다.</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30">
+    <row r="14" spans="1:9" ht="25.5">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -761,12 +843,132 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="45">
+    <row r="18" spans="1:2" ht="38.25">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="140.25">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="38.25">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="89.25">
+      <c r="A29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="76.5">
+      <c r="A31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="51">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Data/StrKo.xlsx
+++ b/Data/StrKo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\black-android\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C2CF11-D17A-41DF-BC7A-69C40488A5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D8EBF1-F13E-43BC-AE11-84A91E52AAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9127" yWindow="4687" windowWidth="28103" windowHeight="15923" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>[StrKoData]</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>공식 카페 이동</t>
+  </si>
+  <si>
+    <t>유저 세이브 코드 확인중…</t>
+  </si>
+  <si>
+    <t>유저 세이브 코드 확인중...</t>
   </si>
 </sst>
 </file>
@@ -656,11 +662,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.75"/>
@@ -971,6 +977,14 @@
         <v>50</v>
       </c>
     </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Data/StrKo.xlsx
+++ b/Data/StrKo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\black-android\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterlee/git/black/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D8EBF1-F13E-43BC-AE11-84A91E52AAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371E63C6-0335-4C47-8E0C-7629B834BE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9127" yWindow="4687" windowWidth="28103" windowHeight="15923" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7540" yWindow="-28300" windowWidth="51200" windowHeight="28300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StrKo" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
   <si>
     <t>[StrKoData]</t>
   </si>
@@ -213,6 +213,21 @@
   </si>
   <si>
     <t>유저 세이브 코드 확인중...</t>
+  </si>
+  <si>
+    <t>채색의 달인이 되었다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>색칠 {1} 콤보</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1}번 연속 색칠 성공! 대단한 집중력!</t>
+  </si>
+  <si>
+    <t>나는야 화가!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -280,8 +295,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="설명 텍스트" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{4EE907FB-CEAF-4EFD-B766-195093592E9C}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -366,7 +381,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -662,24 +677,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="77.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="140.1328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.1328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43.1328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="77.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="140.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="42" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.1328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="40.1328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
@@ -816,7 +831,7 @@
         <v>골드가 부족합니다.</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="25.5">
+    <row r="14" spans="1:9" ht="30">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -849,7 +864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="38.25">
+    <row r="18" spans="1:2" ht="45">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -857,7 +872,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="140.25">
+    <row r="19" spans="1:2" ht="165">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -929,7 +944,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="38.25">
+    <row r="28" spans="1:2" ht="45">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -937,7 +952,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="89.25">
+    <row r="29" spans="1:2" ht="105">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
@@ -953,7 +968,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="76.5">
+    <row r="31" spans="1:2" ht="90">
       <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
@@ -961,7 +976,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="51">
+    <row r="32" spans="1:2" ht="45">
       <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
@@ -983,6 +998,38 @@
       </c>
       <c r="B34" s="1" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Data/StrKo.xlsx
+++ b/Data/StrKo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterlee/git/black/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gb/black-android/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371E63C6-0335-4C47-8E0C-7629B834BE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935D4D31-5C64-4F49-AD9F-01FCD43A81EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7540" yWindow="-28300" windowWidth="51200" windowHeight="28300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StrKo" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="SushiJa">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>[StrKoData]</t>
   </si>
@@ -228,6 +228,9 @@
   <si>
     <t>나는야 화가!</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(오프라인)</t>
   </si>
 </sst>
 </file>
@@ -295,8 +298,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="설명 텍스트" xfId="1" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{4EE907FB-CEAF-4EFD-B766-195093592E9C}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -381,7 +384,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -677,11 +680,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
@@ -1032,6 +1035,14 @@
         <v>55</v>
       </c>
     </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Data/StrKo.xlsx
+++ b/Data/StrKo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gb/black-android/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935D4D31-5C64-4F49-AD9F-01FCD43A81EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE9F707-FE06-764B-BBA7-CAB6D80EDEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t>[StrKoData]</t>
   </si>
@@ -231,6 +231,22 @@
   </si>
   <si>
     <t>(오프라인)</t>
+  </si>
+  <si>
+    <t>광고를 볼 수 없습니다.
+1. 잠시 기다린 후 다시 버튼을 눌러 재시도 해 보세요.
+2. (동일한 증상 반복 시) 게임을 재시작 후 다시 시도 해 주세요.
+더 보여드릴 광고가 없는 경우도 있습니다.
+이 경우 하루 정도 지난 후 다시 시도 해 주세요.</t>
+  </si>
+  <si>
+    <t>$AdMob 광고 볼 수 없는 사유 설명$</t>
+  </si>
+  <si>
+    <t>그림을 준비하는 중...</t>
+  </si>
+  <si>
+    <t>그림을 준비하는 중…</t>
   </si>
 </sst>
 </file>
@@ -680,11 +696,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
@@ -1043,6 +1059,22 @@
         <v>57</v>
       </c>
     </row>
+    <row r="40" spans="1:2" ht="105">
+      <c r="A40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Data/StrKo.xlsx
+++ b/Data/StrKo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gb/black-android/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\black-android\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE9F707-FE06-764B-BBA7-CAB6D80EDEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A785D14-F2BF-4601-AC0E-E6F45CA03A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9127" yWindow="4687" windowWidth="28103" windowHeight="15923" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StrKo" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>[StrKoData]</t>
   </si>
@@ -247,6 +247,13 @@
   </si>
   <si>
     <t>그림을 준비하는 중…</t>
+  </si>
+  <si>
+    <t>'{0}' 스테이지를 다시 시작할까요?\n\n설정 메뉴에서 언제든지 미술관으로 돌아올 수 있습니다.</t>
+  </si>
+  <si>
+    <t>'{0}' 스테이지를 다시 시작할까요?
+설정 메뉴에서 언제든지 미술관으로 돌아올 수 있습니다.</t>
   </si>
 </sst>
 </file>
@@ -305,11 +312,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -696,24 +707,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="77.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="140.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="77.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="140.1328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.1328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.1328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="42" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="40.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.1328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40.1328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.1328125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
@@ -850,7 +861,7 @@
         <v>골드가 부족합니다.</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30">
+    <row r="14" spans="1:9" ht="25.5">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -883,7 +894,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="45">
+    <row r="18" spans="1:2" ht="38.25">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -891,7 +902,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="165">
+    <row r="19" spans="1:2" ht="140.25">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -963,7 +974,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="45">
+    <row r="28" spans="1:2" ht="38.25">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -971,7 +982,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="105">
+    <row r="29" spans="1:2" ht="89.25">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
@@ -987,7 +998,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="90">
+    <row r="31" spans="1:2" ht="76.5">
       <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
@@ -995,7 +1006,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="45">
+    <row r="32" spans="1:2" ht="51">
       <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
@@ -1059,7 +1070,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="105">
+    <row r="40" spans="1:2" ht="89.25">
       <c r="A40" s="1" t="s">
         <v>59</v>
       </c>
@@ -1073,6 +1084,14 @@
       </c>
       <c r="B41" s="1" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="38.25">
+      <c r="A42" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Data/StrKo.xlsx
+++ b/Data/StrKo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\black-android\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A785D14-F2BF-4601-AC0E-E6F45CA03A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02293A96-8C46-4243-B43D-53BCC854737A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9127" yWindow="4687" windowWidth="28103" windowHeight="15923" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
   <si>
     <t>[StrKoData]</t>
   </si>
@@ -254,6 +254,9 @@
   <si>
     <t>'{0}' 스테이지를 다시 시작할까요?
 설정 메뉴에서 언제든지 미술관으로 돌아올 수 있습니다.</t>
+  </si>
+  <si>
+    <t>컬러뮤지엄를 종료하시겠습니까?</t>
   </si>
 </sst>
 </file>
@@ -707,7 +710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
@@ -1094,6 +1097,14 @@
         <v>63</v>
       </c>
     </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Data/StrKo.xlsx
+++ b/Data/StrKo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\black-android\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gb/black-android/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02293A96-8C46-4243-B43D-53BCC854737A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A639E48-51B4-F643-89A0-4D72C9DDF7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9127" yWindow="4687" windowWidth="28103" windowHeight="15923" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9120" yWindow="4680" windowWidth="28100" windowHeight="15920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StrKo" sheetId="1" r:id="rId1"/>
@@ -249,14 +249,14 @@
     <t>그림을 준비하는 중…</t>
   </si>
   <si>
-    <t>'{0}' 스테이지를 다시 시작할까요?\n\n설정 메뉴에서 언제든지 미술관으로 돌아올 수 있습니다.</t>
-  </si>
-  <si>
-    <t>'{0}' 스테이지를 다시 시작할까요?
+    <t>컬러뮤지엄를 종료하시겠습니까?</t>
+  </si>
+  <si>
+    <t>'{0}' 스테이지를 시작할까요?\n\n설정 메뉴에서 언제든지 미술관으로 돌아올 수 있습니다.</t>
+  </si>
+  <si>
+    <t>'{0}' 스테이지를 시작할까요?
 설정 메뉴에서 언제든지 미술관으로 돌아올 수 있습니다.</t>
-  </si>
-  <si>
-    <t>컬러뮤지엄를 종료하시겠습니까?</t>
   </si>
 </sst>
 </file>
@@ -717,17 +717,17 @@
       <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="77.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="140.1328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.1328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43.1328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="77.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="140.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="42" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.1328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="40.1328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
@@ -864,7 +864,7 @@
         <v>골드가 부족합니다.</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="25.5">
+    <row r="14" spans="1:9" ht="30">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -897,7 +897,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="38.25">
+    <row r="18" spans="1:2" ht="45">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -905,7 +905,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="140.25">
+    <row r="19" spans="1:2" ht="165">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -977,7 +977,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="38.25">
+    <row r="28" spans="1:2" ht="45">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -985,7 +985,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="89.25">
+    <row r="29" spans="1:2" ht="105">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="76.5">
+    <row r="31" spans="1:2" ht="90">
       <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="51">
+    <row r="32" spans="1:2" ht="45">
       <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="89.25">
+    <row r="40" spans="1:2" ht="105">
       <c r="A40" s="1" t="s">
         <v>59</v>
       </c>
@@ -1089,20 +1089,20 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="38.25">
+    <row r="42" spans="1:2" ht="45">
       <c r="A42" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
